--- a/Documents/1. 업무보고/2. 주간업무/2주차/주간업무일지_2주차_주현종.xlsx
+++ b/Documents/1. 업무보고/2. 주간업무/2주차/주간업무일지_2주차_주현종.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EzenCompany\Documents\1. 업무보고\2. 주간업무\2주차\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8062E24A-82B3-4533-893D-59A1416AE0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14635987-7C90-410D-9F2C-41BB7572B234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t xml:space="preserve">세부 업무 계획 </t>
   </si>
@@ -143,7 +143,15 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>DB 설계 및 ERmaster 작성</t>
+    <t>피그마 학습 중</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 설계 및 ERmaster 작성(1차)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토리보드 작성(로그인,회원가입,블로그,채팅)</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -1071,7 +1079,7 @@
   <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11:W11"/>
+      <selection activeCell="O20" sqref="O20:Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1369,7 +1377,9 @@
       <c r="P11" s="52"/>
       <c r="Q11" s="53"/>
       <c r="R11" s="3"/>
-      <c r="S11" s="44"/>
+      <c r="S11" s="44" t="s">
+        <v>35</v>
+      </c>
       <c r="T11" s="44"/>
       <c r="U11" s="44"/>
       <c r="V11" s="44"/>
@@ -1576,7 +1586,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="44" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D19" s="44"/>
       <c r="E19" s="44"/>
@@ -1607,7 +1617,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D20" s="44"/>
       <c r="E20" s="44"/>
